--- a/data/trans_dic/P1412-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1412-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.004430434146141435</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.004914338810085532</v>
+        <v>0.004914338810085533</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.00741729724151077</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003309143195923665</v>
+        <v>0.003306827277355178</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004559339498161352</v>
+        <v>0.00362705226792156</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0007362883652550992</v>
+        <v>0.0007362354098517115</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0306541666435014</v>
+        <v>0.03160812212112132</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0210031057586718</v>
+        <v>0.01925399284408069</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01550882577171293</v>
+        <v>0.01758049476316723</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02796116437352404</v>
+        <v>0.0265245786744941</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01813581093604256</v>
+        <v>0.02112349612110393</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.007623780298046368</v>
+        <v>0.00734922575845333</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02170794959633344</v>
+        <v>0.02092743681972654</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01517102725881394</v>
+        <v>0.01368551199454028</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.009918367095061019</v>
+        <v>0.008438371776176774</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.008092075484483317</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.005795416890103948</v>
+        <v>0.005795416890103947</v>
       </c>
     </row>
     <row r="8">
@@ -787,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003962955792283179</v>
+        <v>0.003906823027934979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001757037643921939</v>
+        <v>0.001768732031646856</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001868466114309107</v>
+        <v>0.001890124673058329</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001906062918190754</v>
+        <v>0.001875953698524705</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.001112987475473294</v>
+        <v>0.001126893894324192</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001963874458543607</v>
+        <v>0.001966448423063326</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003293192282268861</v>
+        <v>0.00396992445364916</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002341723575828882</v>
+        <v>0.002727267538790184</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01390119081610245</v>
+        <v>0.0141820508222059</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02275813842401323</v>
+        <v>0.02197298471467921</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01636041212987361</v>
+        <v>0.01839941192937753</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01618936204525964</v>
+        <v>0.01827267132735794</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01733224894126016</v>
+        <v>0.01670073619349165</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0107638662084529</v>
+        <v>0.01123053294257145</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01195487343811264</v>
+        <v>0.01115138348760618</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01546481309930271</v>
+        <v>0.01588996274703829</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0109984602214664</v>
+        <v>0.01193633346907544</v>
       </c>
     </row>
     <row r="10">
@@ -897,14 +897,14 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006375110093176212</v>
+        <v>0.005509276240847823</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.004424133035666891</v>
+        <v>0.004040057530433179</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006759099181152065</v>
+        <v>0.007021199249327812</v>
       </c>
     </row>
     <row r="12">
@@ -925,26 +925,26 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.0167422694363299</v>
+        <v>0.01746903933858467</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02936688414404429</v>
+        <v>0.02977663357188618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01990182695412196</v>
+        <v>0.01599905707918738</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.0214632024516616</v>
+        <v>0.02110378657215461</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.007797197156669024</v>
+        <v>0.008258812451752173</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.00825952887990556</v>
+        <v>0.007349490506191509</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02026644380018415</v>
+        <v>0.02094364206502422</v>
       </c>
     </row>
     <row r="13">
@@ -997,28 +997,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0045125734421065</v>
+        <v>0.004553197760703087</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008530754666246211</v>
+        <v>0.008519201862086196</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005290422017224921</v>
+        <v>0.005022913593318527</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.002420981642471174</v>
+        <v>0.002396448005464766</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004216147922990078</v>
+        <v>0.004164695339739199</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004976910016904909</v>
+        <v>0.004416600672156185</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.004391813989838277</v>
+        <v>0.004262178918821477</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02088563987025846</v>
+        <v>0.02117269913429216</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02742947435167728</v>
+        <v>0.02877495698247945</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04459118170138747</v>
+        <v>0.0400845595985784</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03068261821299881</v>
+        <v>0.03067752770180818</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0226116348056274</v>
+        <v>0.02340585296239939</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.005382504781707174</v>
+        <v>0.005599406766936848</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02053685791586262</v>
+        <v>0.01907520834991581</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02017398348277894</v>
+        <v>0.02073695447042382</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01859192134119691</v>
+        <v>0.01845631784623015</v>
       </c>
     </row>
     <row r="16">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009618335638236747</v>
+        <v>0.009695237834711851</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005344332733152126</v>
+        <v>0.005088078290583241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1134,27 +1134,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06360608745918928</v>
+        <v>0.06921561278422744</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.015745402735565</v>
+        <v>0.02200523749573294</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.02696636363717637</v>
+        <v>0.02249344632908364</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.01236750243752109</v>
+        <v>0.0114224218010052</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.040557133745068</v>
+        <v>0.03821176765013971</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01055534950316618</v>
+        <v>0.01035712225172952</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.006086631684727137</v>
+        <v>0.00579065897277656</v>
       </c>
     </row>
     <row r="19">
@@ -1208,23 +1208,23 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.008131383141662941</v>
+        <v>0.0082852659422972</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.00347320249546984</v>
+        <v>0.003447382284450964</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.002355664635562024</v>
+        <v>0.002309386567375476</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.001770026310590729</v>
+        <v>0.001757279136093046</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.006724749616951541</v>
+        <v>0.006814915415323821</v>
       </c>
     </row>
     <row r="21">
@@ -1236,26 +1236,26 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.02459243426000789</v>
+        <v>0.02465140008532959</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03297796605709775</v>
+        <v>0.0313917646796804</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03024709425381215</v>
+        <v>0.03081587313224823</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.01653500275332271</v>
+        <v>0.0160353551807458</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01571135436097848</v>
+        <v>0.01573882056406426</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01345985244288849</v>
+        <v>0.01117712762256657</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02068535401364353</v>
+        <v>0.02071636255444096</v>
       </c>
     </row>
     <row r="22">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0030068404152737</v>
+        <v>0.003021550820221101</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.001841209078359209</v>
+        <v>0.001832915571885472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.005076990495017386</v>
+        <v>0.00541650734542326</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.001579831443150291</v>
+        <v>0.001596446749333395</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.005027828016229672</v>
+        <v>0.005027855941773156</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.004389642462617797</v>
+        <v>0.004411481384553087</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.003777008534940216</v>
+        <v>0.003098366539230876</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0053593078560073</v>
+        <v>0.004960546485511991</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00648039962659083</v>
+        <v>0.006258122291773396</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01694409014762809</v>
+        <v>0.01757909579411956</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01890163667412216</v>
+        <v>0.02061847282611224</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02216728275903179</v>
+        <v>0.0219942355918892</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01578658201789261</v>
+        <v>0.01533090685254626</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02332129416531549</v>
+        <v>0.02354621163904472</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0164003185116021</v>
+        <v>0.01619857412847694</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01242197448659554</v>
+        <v>0.01308874522081672</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0170988912862741</v>
+        <v>0.01636206440198354</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01587323149976788</v>
+        <v>0.0150350718502824</v>
       </c>
     </row>
     <row r="25">
@@ -1403,7 +1403,7 @@
         <v>0.005676852280250201</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.00480919854855902</v>
+        <v>0.004809198548559021</v>
       </c>
     </row>
     <row r="26">
@@ -1414,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.001407724025357104</v>
+        <v>0.001413792351076658</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.003219945279850277</v>
+        <v>0.002713021254124435</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0009143115542752404</v>
+        <v>0.0009359648195309572</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.001415052687994757</v>
+        <v>0.001415205304702614</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.001282127995136815</v>
+        <v>0.001281182972622496</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.002229613763981534</v>
+        <v>0.002304527380446996</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.002689512879647463</v>
+        <v>0.002711152419925647</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.002600216306501229</v>
+        <v>0.002540303890999893</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.002604735465404069</v>
+        <v>0.002531704745027983</v>
       </c>
     </row>
     <row r="27">
@@ -1449,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01396833936353592</v>
+        <v>0.0136310647479856</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01563073507626359</v>
+        <v>0.01565319288592348</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01131542666552534</v>
+        <v>0.01067563552561211</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01325381594047849</v>
+        <v>0.01373676236869955</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01081695005049467</v>
+        <v>0.01072124147118958</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01068966466661506</v>
+        <v>0.01100728812081457</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.009824360424363474</v>
+        <v>0.0109293970108513</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01013808917246242</v>
+        <v>0.01037051545031016</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.008532197080323723</v>
+        <v>0.008583311897771853</v>
       </c>
     </row>
     <row r="28">
@@ -1512,7 +1512,7 @@
         <v>0.0065338430882265</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.007391094912388612</v>
+        <v>0.007391094912388611</v>
       </c>
     </row>
     <row r="29">
@@ -1523,31 +1523,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.004170432431788456</v>
+        <v>0.004293645873095654</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.00502843061707087</v>
+        <v>0.004948112413642336</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.006731233987816244</v>
+        <v>0.006851925036920759</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.004639602994534573</v>
+        <v>0.004564279721192182</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.003276703467563192</v>
+        <v>0.002936232799719968</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.003854078814197794</v>
+        <v>0.004043609608884344</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.005125836831640547</v>
+        <v>0.005001638946723603</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.004701321920392155</v>
+        <v>0.004553402413509961</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.006079877791644498</v>
+        <v>0.00589654893317487</v>
       </c>
     </row>
     <row r="30">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.00999646013862643</v>
+        <v>0.01023464188048124</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01146527210404807</v>
+        <v>0.01122857982533052</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01302156050044997</v>
+        <v>0.0128947921508043</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01023603320841323</v>
+        <v>0.0102525380343186</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.00853567851896409</v>
+        <v>0.008478363341387284</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.007834197100607449</v>
+        <v>0.00760035676228193</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.009353159953865386</v>
+        <v>0.009189034475953262</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.008731547006761977</v>
+        <v>0.008641182615515011</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.009552261817480871</v>
+        <v>0.009506170074070844</v>
       </c>
     </row>
     <row r="31">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2653</v>
+        <v>2111</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9035</v>
+        <v>9316</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6170</v>
+        <v>5656</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4945</v>
+        <v>5605</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8032</v>
+        <v>7619</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5236</v>
+        <v>6098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>2410</v>
+        <v>2323</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12634</v>
+        <v>12179</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8837</v>
+        <v>7971</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6297</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="8">
@@ -1962,28 +1962,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1992</v>
+        <v>1963</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3378</v>
+        <v>4072</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2514</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="11">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7027</v>
+        <v>7169</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11438</v>
+        <v>11043</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8643</v>
+        <v>9720</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>8479</v>
+        <v>9571</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9066</v>
+        <v>8736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5867</v>
+        <v>6122</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12305</v>
+        <v>11478</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15862</v>
+        <v>16298</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11806</v>
+        <v>12812</v>
       </c>
     </row>
     <row r="12">
@@ -2107,14 +2107,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2014</v>
+        <v>1741</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>1577</v>
+        <v>1440</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4545</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="15">
@@ -2135,26 +2135,26 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>5334</v>
+        <v>5565</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9280</v>
+        <v>9409</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6787</v>
+        <v>5456</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>7649</v>
+        <v>7521</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5186</v>
+        <v>5493</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5409</v>
+        <v>4813</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13627</v>
+        <v>14082</v>
       </c>
     </row>
     <row r="16">
@@ -2242,28 +2242,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1669</v>
+        <v>1685</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2058</v>
+        <v>1954</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3217</v>
+        <v>3177</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3769</v>
+        <v>3344</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3492</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="19">
@@ -2274,31 +2274,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7811</v>
+        <v>7918</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10148</v>
+        <v>10646</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16639</v>
+        <v>14957</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11934</v>
+        <v>11932</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8757</v>
+        <v>9065</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2271</v>
+        <v>2363</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15668</v>
+        <v>14553</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15277</v>
+        <v>15703</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>14783</v>
+        <v>14675</v>
       </c>
     </row>
     <row r="20">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2045</v>
+        <v>2061</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2310</v>
+        <v>2199</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
@@ -2414,27 +2414,27 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13524</v>
+        <v>14716</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3326</v>
+        <v>4648</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>5922</v>
+        <v>4939</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>2800</v>
+        <v>2586</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>17529</v>
+        <v>16515</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>4537</v>
+        <v>4452</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2630</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="24">
@@ -2523,23 +2523,23 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2201</v>
+        <v>2243</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3590</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="27">
@@ -2551,26 +2551,26 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>6471</v>
+        <v>6486</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8927</v>
+        <v>8498</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8412</v>
+        <v>8570</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>4350</v>
+        <v>4219</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8674</v>
+        <v>8689</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7218</v>
+        <v>5994</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11042</v>
+        <v>11059</v>
       </c>
     </row>
     <row r="28">
@@ -2655,31 +2655,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1993</v>
+        <v>2003</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3642</v>
+        <v>3886</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1095</v>
+        <v>1106</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>3476</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3380</v>
+        <v>3397</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>5120</v>
+        <v>4200</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>7224</v>
+        <v>6686</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>9639</v>
+        <v>9308</v>
       </c>
     </row>
     <row r="31">
@@ -2690,31 +2690,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11230</v>
+        <v>11651</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12410</v>
+        <v>13537</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15903</v>
+        <v>15779</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10939</v>
+        <v>10623</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16122</v>
+        <v>16277</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>12628</v>
+        <v>12472</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>16840</v>
+        <v>17744</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>23047</v>
+        <v>22054</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>23609</v>
+        <v>22363</v>
       </c>
     </row>
     <row r="32">
@@ -2799,31 +2799,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2507</v>
+        <v>2112</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="F34" s="6" t="n">
         <v>1162</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1852</v>
+        <v>1914</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>4305</v>
+        <v>4339</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>4173</v>
+        <v>4077</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4242</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="35">
@@ -2834,31 +2834,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>10883</v>
+        <v>10620</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>12170</v>
+        <v>12187</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>9031</v>
+        <v>8520</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>10887</v>
+        <v>11283</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>8937</v>
+        <v>8858</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>8879</v>
+        <v>9143</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>15724</v>
+        <v>17492</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>16269</v>
+        <v>16642</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>13896</v>
+        <v>13979</v>
       </c>
     </row>
     <row r="36">
@@ -2943,31 +2943,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>14291</v>
+        <v>14713</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>17068</v>
+        <v>16796</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>23749</v>
+        <v>24175</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>16484</v>
+        <v>16217</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>11614</v>
+        <v>10408</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>14374</v>
+        <v>15081</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>35777</v>
+        <v>34910</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>32622</v>
+        <v>31596</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>44126</v>
+        <v>42796</v>
       </c>
     </row>
     <row r="39">
@@ -2978,31 +2978,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>34256</v>
+        <v>35072</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>38917</v>
+        <v>38114</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>45942</v>
+        <v>45495</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>36368</v>
+        <v>36427</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>30255</v>
+        <v>30052</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>29218</v>
+        <v>28346</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>65283</v>
+        <v>64137</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>60587</v>
+        <v>59960</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>69328</v>
+        <v>68993</v>
       </c>
     </row>
     <row r="40">
